--- a/Tableau de synthèse - Epreuve E4 - BTS SIO 2024-2026.xlsx
+++ b/Tableau de synthèse - Epreuve E4 - BTS SIO 2024-2026.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matheo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matheo\Documents\2 - ETUDE\1 - TP.DEVOIR DATE BUTOIRE\EXPLOITATION SYSTEME\Portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB8F881-55A9-4B78-B867-2F9933233C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B715C618-8F57-45C4-9DBB-32D6080A972A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2940" windowWidth="16200" windowHeight="9397" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -86,9 +86,6 @@
 ▸Développer son projet professionnel</t>
   </si>
   <si>
-    <t>▢ SISR</t>
-  </si>
-  <si>
     <t>▢ SLAM</t>
   </si>
   <si>
@@ -119,10 +116,25 @@
     <t>NOM et prénom : PELLOUX Mathéo</t>
   </si>
   <si>
-    <t>Centre de formation : CFA CCI</t>
-  </si>
-  <si>
     <t>SESSION 2024-2026</t>
+  </si>
+  <si>
+    <t>Centre de formation : Campus CCI Vaucluse</t>
+  </si>
+  <si>
+    <t>☒ SISR</t>
+  </si>
+  <si>
+    <t>Virtualisation structure d'un windows serveur DHCP, AD, un routeur, et un debian glpi</t>
+  </si>
+  <si>
+    <t>Gére des projet avec gantproject ou trello</t>
+  </si>
+  <si>
+    <t>✖</t>
+  </si>
+  <si>
+    <t>Mise en place de trello</t>
   </si>
 </sst>
 </file>
@@ -132,7 +144,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -190,18 +202,41 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="22"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="29">
     <border>
@@ -594,7 +629,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -617,113 +652,122 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1035,8 +1079,8 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E3"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.86328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -1049,84 +1093,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="24"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
     </row>
     <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="37"/>
-      <c r="H3" s="43"/>
+      <c r="A3" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="28"/>
+      <c r="H3" s="34"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="14" t="s">
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="21" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="35"/>
+      <c r="A5" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="26"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>20</v>
+      <c r="A6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>19</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>0</v>
@@ -1148,24 +1192,24 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="23"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="8" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="46" t="s">
         <v>14</v>
       </c>
       <c r="I7"/>
@@ -1205,16 +1249,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.35">
-      <c r="A8" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="27"/>
+      <c r="A8" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="18"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1252,14 +1296,20 @@
       <c r="AQ8"/>
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="11"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="18"/>
+      <c r="A9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="39"/>
+      <c r="C9" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="38"/>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
@@ -1297,14 +1347,18 @@
       <c r="AQ9"/>
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="11"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="18"/>
+      <c r="A10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="39"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="37"/>
+      <c r="H10" s="38"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
@@ -1342,14 +1396,14 @@
       <c r="AQ10"/>
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="11"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="18"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="38"/>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
@@ -1387,14 +1441,14 @@
       <c r="AQ11"/>
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="11"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="18"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="38"/>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
@@ -1432,14 +1486,14 @@
       <c r="AQ12"/>
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="11"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="18"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="38"/>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
@@ -1477,22 +1531,15 @@
       <c r="AQ13"/>
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="11"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="18"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="38"/>
       <c r="I14"/>
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14"/>
-      <c r="M14"/>
-      <c r="N14"/>
-      <c r="O14"/>
-      <c r="P14"/>
       <c r="Q14"/>
       <c r="R14"/>
       <c r="S14"/>
@@ -1522,22 +1569,15 @@
       <c r="AQ14"/>
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="11"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="18"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="38"/>
       <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
-      <c r="M15"/>
-      <c r="N15"/>
-      <c r="O15"/>
-      <c r="P15"/>
       <c r="Q15"/>
       <c r="R15"/>
       <c r="S15"/>
@@ -1567,22 +1607,15 @@
       <c r="AQ15"/>
     </row>
     <row r="16" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="11"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="18"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="38"/>
       <c r="I16"/>
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
-      <c r="M16"/>
-      <c r="N16"/>
-      <c r="O16"/>
-      <c r="P16"/>
       <c r="Q16"/>
       <c r="R16"/>
       <c r="S16"/>
@@ -1612,22 +1645,15 @@
       <c r="AQ16"/>
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="11"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="18"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="38"/>
       <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17"/>
-      <c r="N17"/>
-      <c r="O17"/>
-      <c r="P17"/>
       <c r="Q17"/>
       <c r="R17"/>
       <c r="S17"/>
@@ -1657,22 +1683,15 @@
       <c r="AQ17"/>
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="11"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="18"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="38"/>
       <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
-      <c r="M18"/>
-      <c r="N18"/>
-      <c r="O18"/>
-      <c r="P18"/>
       <c r="Q18"/>
       <c r="R18"/>
       <c r="S18"/>
@@ -1702,24 +1721,17 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.35">
-      <c r="A19" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="30"/>
+      <c r="A19" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="21"/>
       <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
-      <c r="O19"/>
-      <c r="P19"/>
       <c r="Q19"/>
       <c r="R19"/>
       <c r="S19"/>
@@ -1749,22 +1761,19 @@
       <c r="AQ19"/>
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="11"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="18"/>
+      <c r="A20" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="41"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="36"/>
+      <c r="H20" s="42"/>
       <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
-      <c r="M20"/>
-      <c r="N20"/>
-      <c r="O20"/>
-      <c r="P20"/>
       <c r="Q20"/>
       <c r="R20"/>
       <c r="S20"/>
@@ -1794,14 +1803,14 @@
       <c r="AQ20"/>
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="11"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="18"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="42"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
@@ -1839,14 +1848,14 @@
       <c r="AQ21"/>
     </row>
     <row r="22" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="11"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="18"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="42"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
@@ -1884,14 +1893,14 @@
       <c r="AQ22"/>
     </row>
     <row r="23" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="11"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="18"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="42"/>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
@@ -1929,14 +1938,14 @@
       <c r="AQ23"/>
     </row>
     <row r="24" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="11"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="18"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="42"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
@@ -1974,14 +1983,14 @@
       <c r="AQ24"/>
     </row>
     <row r="25" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="11"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="18"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="42"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
@@ -2019,14 +2028,14 @@
       <c r="AQ25"/>
     </row>
     <row r="26" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="11"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="18"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="42"/>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
@@ -2064,16 +2073,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.35">
-      <c r="A27" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="30"/>
+      <c r="A27" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="21"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2111,14 +2120,14 @@
       <c r="AQ27"/>
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="11"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="18"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="42"/>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
@@ -2156,14 +2165,14 @@
       <c r="AQ28"/>
     </row>
     <row r="29" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="11"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="18"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="42"/>
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29"/>
@@ -2201,14 +2210,14 @@
       <c r="AQ29"/>
     </row>
     <row r="30" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="11"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="18"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="42"/>
       <c r="I30"/>
       <c r="J30"/>
       <c r="K30"/>
@@ -2246,14 +2255,14 @@
       <c r="AQ30"/>
     </row>
     <row r="31" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="11"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="18"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="42"/>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
@@ -2291,14 +2300,14 @@
       <c r="AQ31"/>
     </row>
     <row r="32" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="11"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="18"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="42"/>
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
@@ -2336,14 +2345,14 @@
       <c r="AQ32"/>
     </row>
     <row r="33" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="11"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="18"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="42"/>
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33"/>
@@ -2381,14 +2390,14 @@
       <c r="AQ33"/>
     </row>
     <row r="34" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="12"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="20"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="45"/>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
